--- a/Высота.xlsx
+++ b/Высота.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuri.golubev\Documents\Перерывы\Перерывы.2022.01.20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63005D9B-9884-4F65-9BFF-F1EFDFE7D88C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>natalia.zabudchenko</author>
   </authors>
   <commentList>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;0;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1702,18 +1703,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="MDSBadStyle" xfId="5"/>
-    <cellStyle name="MDSHeader" xfId="11"/>
-    <cellStyle name="MDSInputStyle" xfId="6"/>
-    <cellStyle name="MDSNewRecord" xfId="8"/>
-    <cellStyle name="MDSNonPivot" xfId="10"/>
-    <cellStyle name="MDSNormal" xfId="4"/>
-    <cellStyle name="MDSReadOnlyStyle" xfId="7"/>
-    <cellStyle name="MDSUnmanaged" xfId="9"/>
-    <cellStyle name="Название 2" xfId="2"/>
-    <cellStyle name="Нейтральный 2" xfId="3"/>
+    <cellStyle name="MDSBadStyle" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="MDSHeader" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="MDSInputStyle" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="MDSNewRecord" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="MDSNonPivot" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="MDSNormal" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="MDSReadOnlyStyle" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="MDSUnmanaged" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Название 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Нейтральный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2084,11 +2085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Высота.xlsx
+++ b/Высота.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victoria.skryabina\Desktop\Перерывы АКТУАЛЬНЫЕ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A72CB68-7297-4C27-9E9B-432C4A17552F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA2A330-E6F7-4175-8577-0D28DACDB220}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F8828A4A-DD03-42BD-B468-7033643A9B87}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{F8828A4A-DD03-42BD-B468-7033643A9B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1662,25 +1662,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EAC6D5-674F-4232-9620-1DEF07393BD6}">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="48" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="7.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="150" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="150" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1693,7 +1693,7 @@
       <c r="H1" s="148"/>
       <c r="I1" s="149"/>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1708,7 +1708,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1721,7 +1721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="54"/>
@@ -2054,7 +2054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="58"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="36"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="I25" s="151"/>
     </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="38">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="I26" s="152"/>
     </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="55" t="s">
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="154" t="s">
@@ -2277,7 +2277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="64" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="64" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="61"/>
       <c r="B33" s="27"/>
       <c r="C33" s="38"/>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="87"/>
       <c r="B42" s="87"/>
       <c r="C42" s="87" t="s">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="87"/>
       <c r="B43" s="87"/>
       <c r="C43" s="87" t="s">
@@ -2497,7 +2497,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="87"/>
       <c r="B44" s="87"/>
       <c r="C44" s="87" t="s">
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="87"/>
       <c r="B45" s="87"/>
       <c r="C45" s="87" t="s">
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="87"/>
       <c r="B46" s="87"/>
       <c r="C46" s="87" t="s">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="91"/>
       <c r="B47" s="91"/>
       <c r="C47" s="91"/>
@@ -2573,10 +2573,10 @@
       <c r="H47" s="94"/>
       <c r="I47" s="95">
         <f t="shared" ref="I47" si="4">SUM(I58+I85+I109)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="93"/>
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
@@ -2589,13 +2589,13 @@
       <c r="H48" s="94"/>
       <c r="I48" s="95">
         <f t="shared" ref="I48" si="5">SUM(I59,I86,I108)</f>
-        <v>9.3977272727272716</v>
+        <v>10.397727272727272</v>
       </c>
       <c r="J48" s="64"/>
       <c r="K48" s="64"/>
       <c r="L48" s="64"/>
     </row>
-    <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="91"/>
       <c r="B49" s="91"/>
       <c r="C49" s="91"/>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91"/>
       <c r="B50" s="91"/>
       <c r="C50" s="91"/>
@@ -2624,10 +2624,10 @@
       <c r="H50" s="97"/>
       <c r="I50" s="98">
         <f t="shared" ref="I50" ca="1" si="7">IF(I108&gt;0,COUNTIFS(I62:I172,"&gt;0",OFFSET(I62:I172,-1,0),"&lt;&gt;С",OFFSET(I62:I172,0,(COLUMN(I50)-4)*(-1)),"&gt;0")-1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="91"/>
       <c r="B51" s="91"/>
       <c r="C51" s="91"/>
@@ -2640,13 +2640,13 @@
       <c r="H51" s="94"/>
       <c r="I51" s="95">
         <f t="shared" ref="I51" si="8">I47-I54</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J51" s="64"/>
       <c r="K51" s="64"/>
       <c r="L51" s="64"/>
     </row>
-    <row r="52" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="91"/>
       <c r="B52" s="91"/>
       <c r="C52" s="91"/>
@@ -2659,13 +2659,13 @@
       <c r="H52" s="95"/>
       <c r="I52" s="95">
         <f t="shared" ref="I52" si="9">SUM(I62:I82,I89:I106,I113:I115)</f>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J52" s="64"/>
       <c r="K52" s="64"/>
       <c r="L52" s="64"/>
     </row>
-    <row r="53" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="93"/>
       <c r="B53" s="93"/>
       <c r="C53" s="93"/>
@@ -2678,13 +2678,13 @@
       <c r="H53" s="94"/>
       <c r="I53" s="95">
         <f t="shared" ref="I53" si="10">I48-I59</f>
-        <v>3.2727272727272716</v>
+        <v>4.2727272727272716</v>
       </c>
       <c r="J53" s="64"/>
       <c r="K53" s="64"/>
       <c r="L53" s="64"/>
     </row>
-    <row r="54" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="99"/>
       <c r="B54" s="99"/>
       <c r="C54" s="99"/>
@@ -2703,7 +2703,7 @@
       <c r="K54" s="64"/>
       <c r="L54" s="64"/>
     </row>
-    <row r="55" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="99"/>
       <c r="B55" s="99"/>
       <c r="C55" s="99"/>
@@ -2722,7 +2722,7 @@
       <c r="K55" s="64"/>
       <c r="L55" s="64"/>
     </row>
-    <row r="56" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="99"/>
       <c r="B56" s="99"/>
       <c r="C56" s="99"/>
@@ -2741,7 +2741,7 @@
       <c r="K56" s="64"/>
       <c r="L56" s="64"/>
     </row>
-    <row r="57" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="104"/>
       <c r="B57" s="104"/>
       <c r="C57" s="104"/>
@@ -2760,7 +2760,7 @@
       <c r="K57" s="64"/>
       <c r="L57" s="64"/>
     </row>
-    <row r="58" spans="1:12" s="110" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="110" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="104"/>
       <c r="B58" s="104"/>
       <c r="C58" s="104"/>
@@ -2779,7 +2779,7 @@
       <c r="K58" s="64"/>
       <c r="L58" s="64"/>
     </row>
-    <row r="59" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="104"/>
       <c r="B59" s="104"/>
       <c r="C59" s="104"/>
@@ -2798,7 +2798,7 @@
       <c r="K59" s="64"/>
       <c r="L59" s="64"/>
     </row>
-    <row r="60" spans="1:12" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2813,7 +2813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2908,7 +2908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>32</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="I82" s="35"/>
     </row>
-    <row r="83" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="115"/>
       <c r="B83" s="115"/>
       <c r="C83" s="116" t="s">
@@ -3290,7 +3290,7 @@
       <c r="H83" s="117"/>
       <c r="I83" s="118"/>
     </row>
-    <row r="84" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="104"/>
       <c r="B84" s="104"/>
       <c r="C84" s="104"/>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="104"/>
       <c r="B85" s="104"/>
       <c r="C85" s="104"/>
@@ -3319,10 +3319,10 @@
       <c r="H85" s="108"/>
       <c r="I85" s="119">
         <f t="shared" ref="I85" si="17">COUNTIF(I89:I106,"&gt;0")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="104"/>
       <c r="B86" s="104"/>
       <c r="C86" s="104"/>
@@ -3335,10 +3335,10 @@
       <c r="H86" s="106"/>
       <c r="I86" s="107">
         <f>SUM((I90,I96,I99,I102,I105,I93))/11</f>
-        <v>2.7272727272727271</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.7272727272727271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3353,7 +3353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -3366,7 +3366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="61"/>
       <c r="B89" s="27"/>
       <c r="C89" s="38"/>
@@ -3384,7 +3384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>32</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="114"/>
       <c r="B91" s="50"/>
       <c r="C91" s="42"/>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="I91" s="124"/>
     </row>
-    <row r="92" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="112"/>
       <c r="B92" s="19"/>
       <c r="C92" s="36"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="I92" s="125"/>
     </row>
-    <row r="93" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>32</v>
       </c>
@@ -3470,11 +3470,13 @@
       </c>
       <c r="H93" s="30">
         <f>COUNTIF(I93:I93,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="122"/>
-    </row>
-    <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I93" s="122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="67"/>
       <c r="B94" s="41"/>
       <c r="C94" s="42"/>
@@ -3490,7 +3492,7 @@
       </c>
       <c r="I94" s="124"/>
     </row>
-    <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="112"/>
       <c r="B95" s="19"/>
       <c r="C95" s="36"/>
@@ -3506,7 +3508,7 @@
       </c>
       <c r="I95" s="122"/>
     </row>
-    <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>32</v>
       </c>
@@ -3534,7 +3536,7 @@
       </c>
       <c r="I96" s="122"/>
     </row>
-    <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="67"/>
       <c r="B97" s="41"/>
       <c r="C97" s="42"/>
@@ -3550,7 +3552,7 @@
       </c>
       <c r="I97" s="124"/>
     </row>
-    <row r="98" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="112"/>
       <c r="B98" s="19"/>
       <c r="C98" s="36"/>
@@ -3568,7 +3570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>32</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="67"/>
       <c r="B100" s="41"/>
       <c r="C100" s="42"/>
@@ -3614,7 +3616,7 @@
       </c>
       <c r="I100" s="124"/>
     </row>
-    <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="112"/>
       <c r="B101" s="19"/>
       <c r="C101" s="36"/>
@@ -3632,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
         <v>32</v>
       </c>
@@ -3662,7 +3664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="67"/>
       <c r="B103" s="41"/>
       <c r="C103" s="42"/>
@@ -3678,7 +3680,7 @@
       </c>
       <c r="I103" s="124"/>
     </row>
-    <row r="104" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="112"/>
       <c r="B104" s="19"/>
       <c r="C104" s="36"/>
@@ -3694,7 +3696,7 @@
       </c>
       <c r="I104" s="125"/>
     </row>
-    <row r="105" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
         <v>32</v>
       </c>
@@ -3722,7 +3724,7 @@
       </c>
       <c r="I105" s="122"/>
     </row>
-    <row r="106" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="67"/>
       <c r="B106" s="41"/>
       <c r="C106" s="42"/>
@@ -3738,7 +3740,7 @@
       </c>
       <c r="I106" s="124"/>
     </row>
-    <row r="107" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="126"/>
       <c r="B107" s="127"/>
       <c r="C107" s="128" t="s">
@@ -3754,7 +3756,7 @@
       <c r="H107" s="131"/>
       <c r="I107" s="131"/>
     </row>
-    <row r="108" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="132"/>
       <c r="B108" s="133"/>
       <c r="C108" s="134" t="s">
@@ -3775,7 +3777,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="138"/>
       <c r="B109" s="135"/>
       <c r="C109" s="139"/>
@@ -3791,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="140"/>
       <c r="B110" s="141"/>
       <c r="C110" s="142"/>
@@ -3807,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="145"/>
       <c r="B111" s="14"/>
       <c r="C111" s="5"/>
@@ -3822,7 +3824,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -3899,8 +3901,8 @@
       </c>
       <c r="I115" s="35"/>
     </row>
-    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="158">
         <v>0</v>
       </c>
@@ -3909,7 +3911,7 @@
       </c>
       <c r="C119" s="158"/>
     </row>
-    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="159">
         <v>25</v>
       </c>
@@ -3918,7 +3920,7 @@
       </c>
       <c r="C120" s="159"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="e">
         <f ca="1">COUNTIFS(A1:A151,"к", OFFSET(A1:'[1]НОЯБРЬ 2021'!A254A291, 0, 3),"&gt;0")</f>
         <v>#NAME?</v>
